--- a/Programme.json_builder/work/normalized.xlsx
+++ b/Programme.json_builder/work/normalized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2026-01-21</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Le temps des moissons</t>
+          <t>La vie après Siham</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -509,36 +509,32 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Huo Meng</t>
+          <t>Namir Abdel Messeeh</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ours d'argent meilleure réalisation Berlin 2025</t>
+          <t>Invité ADRC Cédric Lépine - Partenariat ADRC</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Coup de cœur</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Géniales</t>
+          <t>Baise-en-ville</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -549,66 +545,58 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Augusto Zanovello</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Martin Jauvat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Invité ADRC Chloé Caye</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>SCOL</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>EauC 3 €</t>
-        </is>
-      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Champions (Campeones)</t>
+          <t>La pire mère au monde</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VO</t>
+          <t>VF</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Javier Fessier</t>
+          <t>Pierre Mazingarbe</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>SCOL</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Pass Culture 4 €</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Séance EPHAD HANDI</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-01-22</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,33 +606,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Los tigres</t>
+          <t>Victor comme tout le monde</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VO</t>
+          <t>VF</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alberto Rodriguez</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Coup de cœur</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -654,47 +638,47 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>La petite cuisine de Mehdi</t>
+          <t>Le grand Phuket</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Amine Adjina</t>
+          <t>Liu Yaonan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Séance EPHAD HANDI - Famille</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ciné Jeunes du samedi 18h</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>TU 5 €</t>
+          <t>Avant-Première en Compétition</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-01-23</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Le pays d'Arto</t>
+          <t>En route</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -705,28 +689,36 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tamara Stepanyan</t>
+          <t>Alexei Mironov</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ciné goûter JP</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Avant-Première</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Imago</t>
+          <t>Urchin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,182 +729,194 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Déni Oumar Pitsaev</t>
+          <t>Harris Dickinson</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Elles inspirent</t>
+          <t>Noise</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lila Carlier</t>
+          <t>Soo-jin Kim</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Rencontre Lila Carlier réalisatrice, et partenariat avec Nous Vous Elles</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-01-24</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Stups</t>
+          <t>Les fleurs du manguier</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alice Odiot, Jean-Robert Viallet</t>
+          <t>Akio Fujimoto</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Partenariat avec Empreinte Carbonne</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Les cavaliers des terres sauvages</t>
+          <t>Sauvage</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VO</t>
+          <t>VF</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mickaël Dweck, Gregory Kershaw</t>
+          <t>Camille Ponsin</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-08</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tout est parti d'ici</t>
+          <t>I swear</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vincent Barthe</t>
+          <t>Kirk Jones</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>rencontre Vincent Barthe, réalisateur</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pompei, sotto le nuvole</t>
+          <t>Ma frère</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VO</t>
+          <t>VF</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gianfranco Rosi</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Lise Akoka, Romane Gueret</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Prix du jury et Prix du jury presse Pauillac 2025</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -920,17 +924,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-01-25</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>L'agent secret</t>
+          <t>Tatouage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -941,26 +945,22 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kleber Mendonça Filho</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Prix mise en scène et interprétation masculine Cannes 2025</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Coup de coeur</t>
-        </is>
-      </c>
+          <t>Yasuzo Masumura</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Soirée avec Pup En Vol + invité (à préciser) - Partenariat ADRC</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-01-27</t>
+          <t>2026-02-12</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -970,43 +970,43 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lady Nazca</t>
+          <t>A pied d'œuvre</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VO</t>
+          <t>VF</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Damien Dorsaz</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Valérie Donzelli</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Partenariat ADRC</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Découverte</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-01-28</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Furcy, né libre</t>
+          <t>Alter ego</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1017,72 +1017,64 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Abd Al Malik</t>
+          <t>Nicolas Charlet, Bruno Lavaine</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Découverte</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Au fil de l'eau</t>
+          <t>Le mystérieux regard du flamant rose</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Diek Grobler</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>Diego Cespedes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>SCOL</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>EauC 3 €</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Father, Mother, Sister, Brother</t>
+          <t>Un jour avec mon père</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1093,64 +1085,76 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Jem Jarmusch</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Lion d'or Venise 2025</t>
-        </is>
-      </c>
+          <t>Akinola Davies</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Séance avancée pour jurys - pas dans prog</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2026-01-30</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>La femme de ménage</t>
+          <t>Maspalomas</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Paul Feig</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>Aitor Arregi, José Mari Goenaga</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>AP-COMP  Prix Cinema Europa Les Arcs 2025, Prix d'interprétation San Sebastian 2025</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Partenariat Festival DIAM</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>18:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Avatar De feu et de cendres</t>
+          <t>La danse des renards</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1161,28 +1165,36 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>James Cameron</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>Valéry Carnoy</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Repas partagé entres les 2 films 19h45</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Eleonora Duse</t>
+          <t>Le garçon qui faisait danser les  collines</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1193,32 +1205,32 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Pietro Marcello</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Georgi M Unkovski</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Découverte</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-01-31</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>La pire mère au monde</t>
+          <t>Affection, affection</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1229,10 +1241,14 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pierre Mazingarbe</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Alexia Walther, Maxime Matray</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1240,7 +1256,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1250,37 +1266,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>La fabrique des monstres</t>
+          <t>Un jour avec mon père</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VF</t>
+          <t>VO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Steve Hudson</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Akinola Davies</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Avant-Première en Compétition</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>TU 4,50 €</t>
-        </is>
-      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2026-02-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1290,7 +1302,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Qui brille au combat</t>
+          <t>La maison des femmes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1298,20 +1310,136 @@
           <t>VF</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>CM1</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Joséphine Japy</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Melisa Godet</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Avant-Première</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Piro Piro</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>VF</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sung-ah Min</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>SCOL</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Ec Labastide Clermont</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Le mécano de la générale</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VF</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Clyde Bruckman, Buster Keaton</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>SCOL</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Coll Mandela Noé</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>L'affaire Bojarski</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VF</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CM2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Jean-Paul Salomé</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
